--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97338F94-7BB7-4EE8-A24B-3457FF568D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C656BEF-A89C-4F74-B2EC-E6A2F05D9406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
+    <workbookView xWindow="2388" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="492">
   <si>
     <t>Date</t>
   </si>
@@ -1481,6 +1481,27 @@
   </si>
   <si>
     <t>Try this again.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/zero-array-transformation-ii/description/?envType=daily-question&amp;envId=2025-03-13</t>
+  </si>
+  <si>
+    <t>Difference array</t>
+  </si>
+  <si>
+    <t>Try this again and learn the difference array method</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2074/D</t>
+  </si>
+  <si>
+    <t>Try this again</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/minimum-platforms-1587115620/1</t>
+  </si>
+  <si>
+    <t>Sweep line algo</t>
   </si>
 </sst>
 </file>
@@ -1849,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C184" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" topLeftCell="D184" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5502,6 +5523,60 @@
       </c>
       <c r="F195" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>298</v>
+      </c>
+      <c r="B196" t="s">
+        <v>485</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>486</v>
+      </c>
+      <c r="F196" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>488</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>284</v>
+      </c>
+      <c r="F197" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>491</v>
+      </c>
+      <c r="F198" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C656BEF-A89C-4F74-B2EC-E6A2F05D9406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78FD549-42CD-4EFE-9A9D-7DB96C311EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2388" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="495">
   <si>
     <t>Date</t>
   </si>
@@ -1502,6 +1502,15 @@
   </si>
   <si>
     <t>Sweep line algo</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2075/problem/B</t>
+  </si>
+  <si>
+    <t>YES(A small hint)</t>
+  </si>
+  <si>
+    <t>Well think like this: for an array of n elements what would be the highest cost you can possible get .. Answer is simple, sort the array and get the last k+1 elements. Now, in which can can you always achieve this: if k&gt;=2 then we can always achive this.Proof: suppose the k+1 highest elements are there from index l to r and then left most index of the k+1 largest elements(one of them ofc) is a and the rightmost of the k+1 largest element is b.Then out the k chosen we can choose index a , b and k-2 other index . As per the last element of the k+1 we can always make it the last element to be painted as we have blue on both its sides and thus we can choose who to paint first and who to paint last.But if k==1 then we can't do this and we have to check for each element</t>
   </si>
 </sst>
 </file>
@@ -1870,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D184" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5577,6 +5586,26 @@
       </c>
       <c r="F198" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>303</v>
+      </c>
+      <c r="B199" t="s">
+        <v>492</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>493</v>
+      </c>
+      <c r="E199" t="s">
+        <v>435</v>
+      </c>
+      <c r="F199" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78FD549-42CD-4EFE-9A9D-7DB96C311EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D7AE5C-A9C8-487B-B20A-FED8B432AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2388" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="497">
   <si>
     <t>Date</t>
   </si>
@@ -1511,6 +1511,12 @@
   </si>
   <si>
     <t>Well think like this: for an array of n elements what would be the highest cost you can possible get .. Answer is simple, sort the array and get the last k+1 elements. Now, in which can can you always achieve this: if k&gt;=2 then we can always achive this.Proof: suppose the k+1 highest elements are there from index l to r and then left most index of the k+1 largest elements(one of them ofc) is a and the rightmost of the k+1 largest element is b.Then out the k chosen we can choose index a , b and k-2 other index . As per the last element of the k+1 we can always make it the last element to be painted as we have blue on both its sides and thus we can choose who to paint first and who to paint last.But if k==1 then we can't do this and we have to check for each element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/chocolates-pickup/1?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=chocolates-pickup</t>
+  </si>
+  <si>
+    <t>Just a classic 3d dp : Not 4d you fool! This is because both the robots will stay on the same row.</t>
   </si>
 </sst>
 </file>
@@ -1879,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="D192" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5606,6 +5612,26 @@
       </c>
       <c r="F199" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>303</v>
+      </c>
+      <c r="B200" t="s">
+        <v>495</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" t="s">
+        <v>333</v>
+      </c>
+      <c r="F200" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D7AE5C-A9C8-487B-B20A-FED8B432AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441A68B-EB96-482C-9D76-5AC7B6CD9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2388" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Prefix sums" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="501">
   <si>
     <t>Date</t>
   </si>
@@ -1517,6 +1518,18 @@
   </si>
   <si>
     <t>Just a classic 3d dp : Not 4d you fool! This is because both the robots will stay on the same row.</t>
+  </si>
+  <si>
+    <t>Sky Stars</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Prefix sums</t>
+  </si>
+  <si>
+    <t>The key is to see that c only has 11 possible values so we can store how many coordinates have a particular value of c . This can be done using a 11 X 101 X 101 3D vector.</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D192" zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="D192" zoomScale="92" workbookViewId="0">
       <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
@@ -5735,7 +5748,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5788,4 +5801,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1981E339-2796-4976-A33C-4CD16AAFE2F6}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E840AA7C-F337-41F0-9A9F-73979F88D83B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441A68B-EB96-482C-9D76-5AC7B6CD9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4136A2-3B0B-4E1E-9A66-35D60018B55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="503">
   <si>
     <t>Date</t>
   </si>
@@ -1530,6 +1530,12 @@
   </si>
   <si>
     <t>The key is to see that c only has 11 possible values so we can store how many coordinates have a particular value of c . This can be done using a 11 X 101 X 101 3D vector.</t>
+  </si>
+  <si>
+    <t>Halloween Array</t>
+  </si>
+  <si>
+    <t>The first thing to notice is the fact that if even one number is repeated then f(A)=0 and we can check the rest. If no element is repeated then if n&gt;32 then as r&lt;=1e9 the value of f(A) &gt; 1e9 and theus f(A)&gt;r . And for n&lt;=32 brute force.</t>
   </si>
 </sst>
 </file>
@@ -1898,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="D192" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" topLeftCell="C179" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5645,6 +5651,23 @@
       </c>
       <c r="F200" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>435</v>
+      </c>
+      <c r="F201" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5738,6 +5761,7 @@
     <hyperlink ref="B184" r:id="rId86" xr:uid="{6C4D878D-9002-40C0-BF89-99F9B5027E75}"/>
     <hyperlink ref="B183" r:id="rId87" xr:uid="{3D5294C5-755E-4029-B98F-7321D2C91F6C}"/>
     <hyperlink ref="B182" r:id="rId88" xr:uid="{5C08971A-F22C-4825-A7D0-882AFF3AB137}"/>
+    <hyperlink ref="B201" r:id="rId89" xr:uid="{397CE38A-C841-4E1E-B379-4BF7C48F5816}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5807,7 +5831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1981E339-2796-4976-A33C-4CD16AAFE2F6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4136A2-3B0B-4E1E-9A66-35D60018B55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEF161-713D-4E2D-B3C2-C555E7133C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="511">
   <si>
     <t>Date</t>
   </si>
@@ -1536,6 +1536,30 @@
   </si>
   <si>
     <t>The first thing to notice is the fact that if even one number is repeated then f(A)=0 and we can check the rest. If no element is repeated then if n&gt;32 then as r&lt;=1e9 the value of f(A) &gt; 1e9 and theus f(A)&gt;r . And for n&lt;=32 brute force.</t>
+  </si>
+  <si>
+    <t>Mishkin Energizer</t>
+  </si>
+  <si>
+    <t>String + implementation</t>
+  </si>
+  <si>
+    <t>Its very hard to explain this , the only thing I learnt from this is that I need to try harder in problems(doesn't mean give more time,  it means think more clearly)</t>
+  </si>
+  <si>
+    <t>Path With Minimum Effort</t>
+  </si>
+  <si>
+    <t>You use bfs but greedily , for each node in the current queue we choose the one which has currently lowest effort and thus we need a priority queue.</t>
+  </si>
+  <si>
+    <t>Find Minimum Time to Reach Last Room II</t>
+  </si>
+  <si>
+    <t>Shortest path</t>
+  </si>
+  <si>
+    <t>This pattern is very useful the bfs modified with the priority queue or set, however here set works but pq gives tle</t>
   </si>
 </sst>
 </file>
@@ -1904,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C179" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F202" sqref="F202"/>
+    <sheetView tabSelected="1" topLeftCell="C186" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5637,7 +5661,7 @@
       <c r="A200" t="s">
         <v>303</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>495</v>
       </c>
       <c r="C200" t="s">
@@ -5668,6 +5692,57 @@
       </c>
       <c r="F201" t="s">
         <v>502</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B202" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
+        <v>504</v>
+      </c>
+      <c r="F202" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B203" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>509</v>
+      </c>
+      <c r="F203" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
+        <v>509</v>
+      </c>
+      <c r="F204" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5762,6 +5837,10 @@
     <hyperlink ref="B183" r:id="rId87" xr:uid="{3D5294C5-755E-4029-B98F-7321D2C91F6C}"/>
     <hyperlink ref="B182" r:id="rId88" xr:uid="{5C08971A-F22C-4825-A7D0-882AFF3AB137}"/>
     <hyperlink ref="B201" r:id="rId89" xr:uid="{397CE38A-C841-4E1E-B379-4BF7C48F5816}"/>
+    <hyperlink ref="B202" r:id="rId90" xr:uid="{849E95C3-FEE5-4AA5-90F9-1FB6AFB5D077}"/>
+    <hyperlink ref="B203" r:id="rId91" xr:uid="{C578028F-497B-43F4-B0E4-CCB3BBBBDBC9}"/>
+    <hyperlink ref="B200" r:id="rId92" xr:uid="{E081DD8D-8959-43DB-8338-3ADCF7FB1676}"/>
+    <hyperlink ref="B204" r:id="rId93" xr:uid="{D22A4362-2F9D-48ED-85DC-57B875849283}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEF161-713D-4E2D-B3C2-C555E7133C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F266EB9-3B38-44EE-B19F-80C3B0F4925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="513">
   <si>
     <t>Date</t>
   </si>
@@ -1560,6 +1560,12 @@
   </si>
   <si>
     <t>This pattern is very useful the bfs modified with the priority queue or set, however here set works but pq gives tle</t>
+  </si>
+  <si>
+    <t>Permutation Game</t>
+  </si>
+  <si>
+    <t>your dp skills need work.</t>
   </si>
 </sst>
 </file>
@@ -1928,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C186" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="C184" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5743,6 +5749,23 @@
       </c>
       <c r="F204" t="s">
         <v>510</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B205" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>333</v>
+      </c>
+      <c r="F205" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5841,6 +5864,7 @@
     <hyperlink ref="B203" r:id="rId91" xr:uid="{C578028F-497B-43F4-B0E4-CCB3BBBBDBC9}"/>
     <hyperlink ref="B200" r:id="rId92" xr:uid="{E081DD8D-8959-43DB-8338-3ADCF7FB1676}"/>
     <hyperlink ref="B204" r:id="rId93" xr:uid="{D22A4362-2F9D-48ED-85DC-57B875849283}"/>
+    <hyperlink ref="B205" r:id="rId94" xr:uid="{F71F6C23-95B8-4F97-91E2-1FD123B66BE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F266EB9-3B38-44EE-B19F-80C3B0F4925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79AB7A-DF38-4593-B050-2C03B75D3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="515">
   <si>
     <t>Date</t>
   </si>
@@ -1566,6 +1566,12 @@
   </si>
   <si>
     <t>your dp skills need work.</t>
+  </si>
+  <si>
+    <t>Number of greater elements to the right</t>
+  </si>
+  <si>
+    <t>when you think that you need to check for all pairs (I,j) for an array it is important to consider the count inversions way.</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C184" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206"/>
+    <sheetView tabSelected="1" topLeftCell="C195" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5766,6 +5772,23 @@
       </c>
       <c r="F205" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B206" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>301</v>
+      </c>
+      <c r="F206" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5865,6 +5888,7 @@
     <hyperlink ref="B200" r:id="rId92" xr:uid="{E081DD8D-8959-43DB-8338-3ADCF7FB1676}"/>
     <hyperlink ref="B204" r:id="rId93" xr:uid="{D22A4362-2F9D-48ED-85DC-57B875849283}"/>
     <hyperlink ref="B205" r:id="rId94" xr:uid="{F71F6C23-95B8-4F97-91E2-1FD123B66BE1}"/>
+    <hyperlink ref="B206" r:id="rId95" xr:uid="{80705264-AD97-44FE-AC3C-47F56E15F4FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79AB7A-DF38-4593-B050-2C03B75D3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC5B9A-2785-402C-9961-A3A409F83173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="527">
   <si>
     <t>Date</t>
   </si>
@@ -1572,6 +1572,42 @@
   </si>
   <si>
     <t>when you think that you need to check for all pairs (I,j) for an array it is important to consider the count inversions way.</t>
+  </si>
+  <si>
+    <t>Combination Sum 2</t>
+  </si>
+  <si>
+    <t>I have realized that the most important aspect of backtracking is pruning of the tree.</t>
+  </si>
+  <si>
+    <t>Preorder, Postorder and Inorder Traversal of a Binary Tree using a single Stack</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>Partition Array Into Two Arrays to Minimize Sum Difference</t>
+  </si>
+  <si>
+    <t>Meet in the middle</t>
+  </si>
+  <si>
+    <t>Print Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>dp on LIS</t>
+  </si>
+  <si>
+    <t>try in O(nlogn)</t>
+  </si>
+  <si>
+    <t>Gas station</t>
+  </si>
+  <si>
+    <t>repititive</t>
+  </si>
+  <si>
+    <t>Count Partitions With Max-Min Difference at Most K</t>
   </si>
 </sst>
 </file>
@@ -1940,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C195" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5789,6 +5825,102 @@
       </c>
       <c r="F206" t="s">
         <v>514</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B207" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>418</v>
+      </c>
+      <c r="F207" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B208" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B209" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>303</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
+        <v>522</v>
+      </c>
+      <c r="F210" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>525</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B212" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5889,6 +6021,12 @@
     <hyperlink ref="B204" r:id="rId93" xr:uid="{D22A4362-2F9D-48ED-85DC-57B875849283}"/>
     <hyperlink ref="B205" r:id="rId94" xr:uid="{F71F6C23-95B8-4F97-91E2-1FD123B66BE1}"/>
     <hyperlink ref="B206" r:id="rId95" xr:uid="{80705264-AD97-44FE-AC3C-47F56E15F4FD}"/>
+    <hyperlink ref="B207" r:id="rId96" xr:uid="{A7FBEB65-87C6-4596-87F7-F5E968ACFCA2}"/>
+    <hyperlink ref="B208" r:id="rId97" xr:uid="{3A0EFFEA-5602-48F3-A883-C701BD7665F0}"/>
+    <hyperlink ref="B209" r:id="rId98" xr:uid="{C3C6DA5B-638B-4F34-8C47-D00EC6D0A86F}"/>
+    <hyperlink ref="B210" r:id="rId99" xr:uid="{CF95A913-4896-45EF-87ED-11671A6B734E}"/>
+    <hyperlink ref="B211" r:id="rId100" xr:uid="{11984A4C-4DC9-4759-AC42-E1B8A4FD3B0B}"/>
+    <hyperlink ref="B212" r:id="rId101" xr:uid="{E1C92969-3912-46AE-9CA2-D935FA7D2A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Marked questions.xlsx
+++ b/Marked questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrutanshu\Desktop\codefiles\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC5B9A-2785-402C-9961-A3A409F83173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65264724-782D-4401-971D-B7A700220B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44586737-5555-46D0-B19C-B395521DBDB7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="528">
   <si>
     <t>Date</t>
   </si>
@@ -1608,6 +1608,9 @@
   </si>
   <si>
     <t>Count Partitions With Max-Min Difference at Most K</t>
+  </si>
+  <si>
+    <t>Maximize Subarrays After Removing One Conflicting Pair</t>
   </si>
 </sst>
 </file>
@@ -1976,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47F879-41D9-4209-8775-ED012ABB8653}">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" topLeftCell="C198" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5921,6 +5924,23 @@
       </c>
       <c r="E212" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B213" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" t="s">
+        <v>333</v>
+      </c>
+      <c r="F213" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6027,6 +6047,7 @@
     <hyperlink ref="B210" r:id="rId99" xr:uid="{CF95A913-4896-45EF-87ED-11671A6B734E}"/>
     <hyperlink ref="B211" r:id="rId100" xr:uid="{11984A4C-4DC9-4759-AC42-E1B8A4FD3B0B}"/>
     <hyperlink ref="B212" r:id="rId101" xr:uid="{E1C92969-3912-46AE-9CA2-D935FA7D2A88}"/>
+    <hyperlink ref="B213" r:id="rId102" xr:uid="{E8FF6A36-8F2D-4635-BFFE-2E378DA53587}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
